--- a/codigo_final/final/prediccion_a_un_paso/analisis/Resultados_diferenciacion/test_diebold_mariano.xlsx
+++ b/codigo_final/final/prediccion_a_un_paso/analisis/Resultados_diferenciacion/test_diebold_mariano.xlsx
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.15920918032039</v>
+        <v>2.046924673881068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6077695681797074</v>
+        <v>0.614457099736811</v>
       </c>
       <c r="D3" t="n">
-        <v>1.551439612140682</v>
+        <v>1.432467574144257</v>
       </c>
       <c r="E3" t="n">
-        <v>71.85221451820964</v>
+        <v>69.98145033975428</v>
       </c>
       <c r="F3" t="n">
-        <v>12951</v>
+        <v>13473</v>
       </c>
       <c r="G3" t="n">
-        <v>2.09871605945542e-93</v>
+        <v>1.550017749819525e-92</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.548098880629117</v>
+        <v>2.541979610502438</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6052663614014117</v>
+        <v>0.6121381791025303</v>
       </c>
       <c r="D9" t="n">
-        <v>1.942832519227705</v>
+        <v>1.929841431399907</v>
       </c>
       <c r="E9" t="n">
-        <v>76.24635503736913</v>
+        <v>75.9188399240725</v>
       </c>
       <c r="F9" t="n">
-        <v>12684</v>
+        <v>14723</v>
       </c>
       <c r="G9" t="n">
-        <v>7.519475539185269e-94</v>
+        <v>1.790797395140314e-90</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
